--- a/docs/HDP on Power - Deployment Guide - Build Parameters Worksheet v1.0.xlsx
+++ b/docs/HDP on Power - Deployment Guide - Build Parameters Worksheet v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodbury\Documents\User\IBM\TC\BigDataAnalytics\IDE-HS\v2.0\recipe\HDP on Power - git contents\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodbury\Documents\User\IBM\TC\BigDataAnalytics\HDP-on-Power\recipe\HDP on Power - git contents\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -904,28 +904,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,12 +960,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,6 +998,33 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1089,7 +1089,7 @@
         <xdr:cNvPr id="35" name="Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="36" name="Text Box 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1632,7 @@
         <xdr:cNvPr id="37" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
         <xdr:cNvPr id="38" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2366,7 @@
         <xdr:cNvPr id="39" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2635,7 @@
         <xdr:cNvPr id="40" name="Rectangle 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2832,7 @@
         <xdr:cNvPr id="41" name="Rectangle 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3026,7 @@
         <xdr:cNvPr id="42" name="Rectangle 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3220,7 @@
         <xdr:cNvPr id="43" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3414,7 @@
         <xdr:cNvPr id="44" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,7 +3641,7 @@
         <xdr:cNvPr id="45" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3856,7 @@
         <xdr:cNvPr id="46" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4065,7 +4065,7 @@
         <xdr:cNvPr id="47" name="Right Arrow 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4262,7 @@
         <xdr:cNvPr id="48" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4465,7 +4465,7 @@
         <xdr:cNvPr id="49" name="Right Arrow 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4659,7 +4659,7 @@
         <xdr:cNvPr id="50" name="Right Arrow 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4853,7 +4853,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,19 +5208,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="11" width="33.5703125" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" customWidth="1"/>
+    <col min="7" max="12" width="26.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="15" width="27.28515625" customWidth="1"/>
     <col min="16" max="23" width="18.28515625" customWidth="1"/>
@@ -5233,14 +5233,14 @@
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="2:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5251,20 +5251,20 @@
         <v>36</v>
       </c>
       <c r="F3" s="22"/>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68" t="s">
+      <c r="K3" s="79"/>
+      <c r="L3" s="59" t="s">
         <v>50</v>
       </c>
       <c r="M3" s="22"/>
@@ -5275,16 +5275,16 @@
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="70"/>
+      <c r="L4" s="61"/>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5301,13 +5301,13 @@
       <c r="H5" s="30">
         <v>1</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="66">
         <v>190</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="66">
         <v>188</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="66">
         <v>188</v>
       </c>
       <c r="L5" s="30">
@@ -5329,16 +5329,16 @@
       <c r="H6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="66" t="s">
         <v>54</v>
       </c>
       <c r="M6" s="27"/>
@@ -5360,10 +5360,10 @@
       <c r="I7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="62" t="s">
         <v>135</v>
       </c>
       <c r="L7" s="25"/>
@@ -5386,13 +5386,13 @@
       <c r="I8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="L8" s="66" t="s">
         <v>68</v>
       </c>
       <c r="M8" s="20"/>
@@ -5457,14 +5457,14 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="20"/>
       <c r="N12" s="31" t="s">
         <v>18</v>
@@ -5479,42 +5479,42 @@
       <c r="D13" s="31"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="20"/>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
     </row>
     <row r="14" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="44" t="s">
         <v>133</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="42" t="s">
         <v>95</v>
       </c>
       <c r="M14" s="32"/>
@@ -5526,27 +5526,27 @@
       </c>
     </row>
     <row r="15" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="62" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="44" t="s">
         <v>134</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="42" t="s">
         <v>95</v>
       </c>
       <c r="M15" s="32"/>
@@ -5558,8 +5558,8 @@
       </c>
     </row>
     <row r="16" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="24"/>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
@@ -5574,11 +5574,11 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="75" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="66" t="s">
         <v>137</v>
       </c>
       <c r="E17" s="32"/>
@@ -5594,27 +5594,27 @@
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="51" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="44" t="s">
         <v>96</v>
       </c>
       <c r="M18" s="32"/>
@@ -5626,8 +5626,8 @@
       </c>
     </row>
     <row r="19" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="24"/>
       <c r="E19" s="34"/>
       <c r="F19" s="33"/>
@@ -5642,11 +5642,11 @@
       <c r="O19" s="24"/>
     </row>
     <row r="20" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="75" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="66" t="s">
         <v>144</v>
       </c>
       <c r="E20" s="32"/>
@@ -5662,25 +5662,25 @@
       <c r="O20" s="24"/>
     </row>
     <row r="21" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="51" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="44" t="s">
         <v>97</v>
       </c>
       <c r="M21" s="32"/>
@@ -5692,25 +5692,25 @@
       </c>
     </row>
     <row r="22" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="51" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="44" t="s">
         <v>98</v>
       </c>
       <c r="M22" s="32"/>
@@ -5722,25 +5722,25 @@
       </c>
     </row>
     <row r="23" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="44" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="51" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="44" t="s">
         <v>99</v>
       </c>
       <c r="M23" s="32"/>
@@ -5752,8 +5752,8 @@
       </c>
     </row>
     <row r="24" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="24"/>
       <c r="E24" s="34"/>
       <c r="F24" s="33"/>
@@ -5768,11 +5768,11 @@
       <c r="O24" s="24"/>
     </row>
     <row r="25" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="75" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="66" t="s">
         <v>145</v>
       </c>
       <c r="E25" s="32"/>
@@ -5788,25 +5788,25 @@
       <c r="O25" s="24"/>
     </row>
     <row r="26" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="44" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="51" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="44" t="s">
         <v>100</v>
       </c>
       <c r="M26" s="32"/>
@@ -5818,25 +5818,25 @@
       </c>
     </row>
     <row r="27" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="51" t="s">
+      <c r="G27" s="41"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="L27" s="51" t="s">
+      <c r="L27" s="44" t="s">
         <v>101</v>
       </c>
       <c r="M27" s="32"/>
@@ -5848,25 +5848,25 @@
       </c>
     </row>
     <row r="28" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="44" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="51" t="s">
+      <c r="G28" s="41"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="51" t="s">
+      <c r="L28" s="44" t="s">
         <v>102</v>
       </c>
       <c r="M28" s="32"/>
@@ -5878,25 +5878,25 @@
       </c>
     </row>
     <row r="29" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="44" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="51" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="44" t="s">
         <v>103</v>
       </c>
       <c r="M29" s="32"/>
@@ -5908,25 +5908,25 @@
       </c>
     </row>
     <row r="30" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="44" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="51" t="s">
+      <c r="G30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="44" t="s">
         <v>104</v>
       </c>
       <c r="M30" s="32"/>
@@ -5938,25 +5938,25 @@
       </c>
     </row>
     <row r="31" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="44" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="51" t="s">
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="51" t="s">
+      <c r="L31" s="44" t="s">
         <v>105</v>
       </c>
       <c r="M31" s="32"/>
@@ -5968,25 +5968,25 @@
       </c>
     </row>
     <row r="32" spans="2:15" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="44" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="51" t="s">
+      <c r="G32" s="41"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="51" t="s">
+      <c r="L32" s="44" t="s">
         <v>106</v>
       </c>
       <c r="M32" s="32"/>
@@ -5998,25 +5998,25 @@
       </c>
     </row>
     <row r="33" spans="2:24" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="44" t="s">
         <v>45</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="51" t="s">
+      <c r="G33" s="41"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="51" t="s">
+      <c r="L33" s="44" t="s">
         <v>107</v>
       </c>
       <c r="M33" s="32"/>
@@ -6028,8 +6028,8 @@
       </c>
     </row>
     <row r="34" spans="2:24" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="24"/>
       <c r="E34" s="34"/>
       <c r="F34" s="33"/>
@@ -6044,10 +6044,10 @@
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="2:24" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="24"/>
       <c r="E35" s="34"/>
       <c r="F35" s="33"/>
@@ -6062,25 +6062,25 @@
       <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:24" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="33"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="76" t="s">
+      <c r="G36" s="41"/>
+      <c r="H36" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="75" t="s">
+      <c r="I36" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="34"/>
       <c r="N36" s="29" t="s">
         <v>126</v>
@@ -6090,10 +6090,10 @@
       </c>
     </row>
     <row r="37" spans="2:24" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="24"/>
       <c r="E37" s="34"/>
       <c r="F37" s="33"/>
@@ -6108,25 +6108,25 @@
       <c r="O37" s="24"/>
     </row>
     <row r="38" spans="2:24" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="45" t="s">
         <v>128</v>
       </c>
       <c r="E38" s="34"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49" t="s">
+      <c r="G38" s="41"/>
+      <c r="H38" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="75" t="s">
+      <c r="I38" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
       <c r="M38" s="34"/>
       <c r="N38" s="29" t="s">
         <v>124</v>
@@ -6136,25 +6136,25 @@
       </c>
     </row>
     <row r="39" spans="2:24" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="45" t="s">
         <v>129</v>
       </c>
       <c r="E39" s="34"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49" t="s">
+      <c r="G39" s="41"/>
+      <c r="H39" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="75" t="s">
+      <c r="I39" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="34"/>
       <c r="N39" s="29" t="s">
         <v>125</v>
@@ -6205,16 +6205,16 @@
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="55"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
@@ -6234,13 +6234,13 @@
     </row>
     <row r="44" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="12"/>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="53"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="46"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
@@ -6260,13 +6260,13 @@
     </row>
     <row r="45" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="12"/>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="79"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="70"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
@@ -6285,13 +6285,13 @@
     </row>
     <row r="46" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C46" s="12"/>
-      <c r="D46" s="80" t="s">
+      <c r="D46" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="79"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="70"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
@@ -6310,13 +6310,13 @@
     </row>
     <row r="47" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="12"/>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="74"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="65"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -6335,13 +6335,13 @@
     </row>
     <row r="48" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C48" s="12"/>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="54"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="47"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
@@ -6447,11 +6447,11 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="8"/>
       <c r="F2" s="3"/>
       <c r="G2" s="7"/>
